--- a/certificados/students.xlsx
+++ b/certificados/students.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t xml:space="preserve">Carimbo de data/hora</t>
   </si>
@@ -175,15 +175,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.7"/>
@@ -224,7 +224,9 @@
     <row r="3" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="D3" s="4" t="s">
         <v>6</v>
       </c>
